--- a/rolar_opcoes_IRBR3_IRBRT580_IRBRU580.xlsx
+++ b/rolar_opcoes_IRBR3_IRBRT580_IRBRU580.xlsx
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
